--- a/Documentación/Casos de Prueba .xlsx
+++ b/Documentación/Casos de Prueba .xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\TEC\4 Semestre\Requerimientos de Software\Requerimientos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_518DB6B6488A17CA917D4001E234C5EE02282732" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179020"/>
 </workbook>
 </file>
 
@@ -174,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -317,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,14 +355,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,18 +642,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -663,26 +664,26 @@
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="12.75">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +704,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -760,7 +761,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -779,7 +780,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -811,7 +812,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -828,7 +829,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -845,7 +846,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -862,7 +863,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -879,7 +880,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -896,7 +897,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -913,7 +914,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -923,14 +924,14 @@
       <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -947,7 +948,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -964,7 +965,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -981,7 +982,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -998,7 +999,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -1015,7 +1016,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -1025,14 +1026,14 @@
       <c r="D22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -1042,189 +1043,189 @@
       <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="18.75" customHeight="1">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="6:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:10" ht="18.75" customHeight="1">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:10" ht="12.75">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:10" ht="12.75">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:10" ht="12.75">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:10" ht="12.75">
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:10" ht="12.75">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:10" ht="12.75">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:10" ht="12.75">
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:10" ht="12.75">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:10" ht="12.75">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:10" ht="12.75">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:10" ht="12.75">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:10" ht="12.75">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:10" ht="12.75">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:10" ht="12.75">
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:10" ht="12.75">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" ht="12.75">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1235,7 +1236,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" ht="12.75">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1246,7 +1247,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" ht="12.75">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1257,7 +1258,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" ht="12.75">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1268,7 +1269,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" ht="12.75">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1279,7 +1280,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" ht="12.75">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1290,7 +1291,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" ht="12.75">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1301,7 +1302,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" ht="12.75">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1312,70 +1313,70 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" ht="12.75">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" ht="12.75">
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" ht="12.75">
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" ht="12.75">
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" ht="12.75">
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" ht="12.75">
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" ht="12.75">
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="12.75">
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:10" ht="12.75">
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:10" ht="12.75">
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>

--- a/Documentación/Casos de Prueba .xlsx
+++ b/Documentación/Casos de Prueba .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20814"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\TEC\4 Semestre\Requerimientos de Software\Requerimientos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_518DB6B6488A17CA917D4001E234C5EE02282732" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -175,8 +174,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,7 +190,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,7 +247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -340,9 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,14 +357,17 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,18 +647,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -664,26 +669,26 @@
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12.75">
+    <row r="1" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,7 +709,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -714,16 +719,16 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -733,16 +738,16 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -752,16 +757,16 @@
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -771,16 +776,16 @@
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -790,13 +795,13 @@
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -806,13 +811,13 @@
       <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -822,14 +827,14 @@
       <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -839,14 +844,14 @@
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -856,14 +861,14 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -873,14 +878,14 @@
       <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -890,14 +895,14 @@
       <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -907,14 +912,14 @@
       <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -924,14 +929,14 @@
       <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -941,14 +946,14 @@
       <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -958,14 +963,14 @@
       <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -975,14 +980,14 @@
       <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -992,14 +997,14 @@
       <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -1009,14 +1014,14 @@
       <c r="D21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -1026,14 +1031,14 @@
       <c r="D22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -1043,189 +1048,189 @@
       <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="18.75" customHeight="1">
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="6:10" ht="18.75" customHeight="1">
+    <row r="33" spans="6:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="6:10" ht="12.75">
+    <row r="34" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="6:10" ht="12.75">
+    <row r="35" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="6:10" ht="12.75">
+    <row r="36" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="6:10" ht="12.75">
+    <row r="37" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="6:10" ht="12.75">
+    <row r="38" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="6:10" ht="12.75">
+    <row r="39" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="6:10" ht="12.75">
+    <row r="40" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="6:10" ht="12.75">
+    <row r="41" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="6:10" ht="12.75">
+    <row r="42" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="6:10" ht="12.75">
+    <row r="43" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="6:10" ht="12.75">
+    <row r="44" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="6:10" ht="12.75">
+    <row r="45" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="6:10" ht="12.75">
+    <row r="46" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="6:10" ht="12.75">
+    <row r="47" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="6:10" ht="12.75">
+    <row r="48" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="2:10" ht="12.75">
+    <row r="49" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1236,7 +1241,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="2:10" ht="12.75">
+    <row r="50" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1247,7 +1252,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="2:10" ht="12.75">
+    <row r="51" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1258,7 +1263,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="2:10" ht="12.75">
+    <row r="52" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1269,7 +1274,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="2:10" ht="12.75">
+    <row r="53" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1280,7 +1285,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="2:10" ht="12.75">
+    <row r="54" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1291,7 +1296,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="2:10" ht="12.75">
+    <row r="55" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1302,7 +1307,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="2:10" ht="12.75">
+    <row r="56" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1313,70 +1318,70 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="2:10" ht="12.75">
+    <row r="57" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75">
+    <row r="58" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="2:10" ht="12.75">
+    <row r="59" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="2:10" ht="12.75">
+    <row r="60" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="2:10" ht="12.75">
+    <row r="61" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="2:10" ht="12.75">
+    <row r="62" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="2:10" ht="12.75">
+    <row r="63" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="2:10" ht="12.75">
+    <row r="64" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="6:10" ht="12.75">
+    <row r="65" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="6:10" ht="12.75">
+    <row r="66" spans="6:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
